--- a/analysis/queryResults/FrequentItemsets_keySizeAndAlgo20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_keySizeAndAlgo20022018.xlsx
@@ -30,22 +30,10 @@
     <t>count</t>
   </si>
   <si>
-    <t>{keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{keySize=2048}</t>
   </si>
   <si>
-    <t>{keySize=2048,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=A}</t>
-  </si>
-  <si>
-    <t>{rating=A,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A,keySize=2048,keyAlg=\RSA\"}"</t>
   </si>
   <si>
     <t>{rating=A,keySize=2048}</t>
@@ -57,19 +45,7 @@
     <t>{rating=B}</t>
   </si>
   <si>
-    <t>{rating=A+,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
-    <t>{rating=B,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
-    <t>{rating=B,keySize=2048,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=B,keySize=2048}</t>
-  </si>
-  <si>
-    <t>{rating=A+,keySize=2048,keyAlg=\RSA\"}"</t>
   </si>
   <si>
     <t>{rating=A+,keySize=2048}</t>
@@ -78,40 +54,19 @@
     <t>{rating=A-}</t>
   </si>
   <si>
-    <t>{rating=A-,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A-,keySize=2048,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=A-,keySize=2048}</t>
   </si>
   <si>
     <t>{rating=F}</t>
   </si>
   <si>
-    <t>{rating=F,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=C}</t>
-  </si>
-  <si>
-    <t>{rating=F,keySize=2048,keyAlg=\RSA\"}"</t>
   </si>
   <si>
     <t>{rating=F,keySize=2048}</t>
   </si>
   <si>
-    <t>{rating=C,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
-    <t>{rating=C,keySize=2048,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=C,keySize=2048}</t>
-  </si>
-  <si>
-    <t>{keySize=4096,keyAlg=\RSA\"}"</t>
   </si>
   <si>
     <t>{keySize=4096}</t>
@@ -120,40 +75,16 @@
     <t>{rating=T}</t>
   </si>
   <si>
-    <t>{rating=T,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=T,keySize=2048}</t>
-  </si>
-  <si>
-    <t>{rating=T,keySize=2048,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
-    <t>{keyAlg=\EC\"}"</t>
-  </si>
-  <si>
-    <t>{keySize=256,keyAlg=\EC\"}"</t>
   </si>
   <si>
     <t>{keySize=256}</t>
   </si>
   <si>
-    <t>{rating=A,keyAlg=\EC\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A,keySize=256,keyAlg=\EC\"}"</t>
-  </si>
-  <si>
     <t>{rating=A,keySize=256}</t>
   </si>
   <si>
-    <t>{rating=A,keySize=4096,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=A,keySize=4096}</t>
-  </si>
-  <si>
-    <t>{rating=A+,keySize=4096,keyAlg=\RSA\"}"</t>
   </si>
   <si>
     <t>{rating=A+,keySize=4096}</t>
@@ -168,13 +99,7 @@
     <t>{keySize=null}</t>
   </si>
   <si>
-    <t>{rating=B,keySize=4096,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=B,keySize=4096}</t>
-  </si>
-  <si>
-    <t>{rating=A+,keyAlg=\EC\"}"</t>
   </si>
   <si>
     <t>{rating=A,keySize=null,keyAlg=null}</t>
@@ -186,13 +111,7 @@
     <t>{rating=A,keyAlg=null}</t>
   </si>
   <si>
-    <t>{rating=A+,keySize=256,keyAlg=\EC\"}"</t>
-  </si>
-  <si>
     <t>{rating=A+,keySize=256}</t>
-  </si>
-  <si>
-    <t>{rating=A-,keySize=4096,keyAlg=\RSA\"}"</t>
   </si>
   <si>
     <t>{rating=A-,keySize=4096}</t>
@@ -207,31 +126,16 @@
     <t>{rating=B,keyAlg=null}</t>
   </si>
   <si>
-    <t>{rating=C,keySize=4096,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=C,keySize=4096}</t>
   </si>
   <si>
-    <t>{rating=T,keySize=4096,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=T,keySize=4096}</t>
-  </si>
-  <si>
-    <t>{rating=F,keySize=4096,keyAlg=\RSA\"}"</t>
   </si>
   <si>
     <t>{rating=F,keySize=4096}</t>
   </si>
   <si>
     <t>{keySize=1024}</t>
-  </si>
-  <si>
-    <t>{keySize=1024,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
-    <t>{keySize=384,keyAlg=\EC\"}"</t>
   </si>
   <si>
     <t>{keySize=384}</t>
@@ -253,9 +157,6 @@
   </si>
   <si>
     <t>{rating=F,keyAlg=null}</t>
-  </si>
-  <si>
-    <t>{rating=A+,keySize=384,keyAlg=\EC\"}"</t>
   </si>
   <si>
     <t>{rating=A+,keySize=384}</t>
@@ -282,9 +183,6 @@
     <t>{rating=T,keySize=1024}</t>
   </si>
   <si>
-    <t>{rating=T,keySize=1024,keyAlg=\RSA\"}"</t>
-  </si>
-  <si>
     <t>{rating=T,keySize=null,keyAlg=null}</t>
   </si>
   <si>
@@ -294,10 +192,112 @@
     <t>{rating=T,keyAlg=null}</t>
   </si>
   <si>
-    <t>{rating=F,keySize=1024,keyAlg=\RSA\"}"</t>
+    <t>{rating=F,keySize=1024}</t>
   </si>
   <si>
-    <t>{rating=F,keySize=1024}</t>
+    <t>{keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A,keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A+,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=B,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=B,keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A+,keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A-,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A-,keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=F,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=F,keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=C,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=C,keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=T,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=T,keySize=2048,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{keySize=256,keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{rating=A,keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{rating=A,keySize=256,keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{rating=A,keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A+,keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=B,keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=A+,keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{rating=A+,keySize=256,keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{rating=A-,keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=C,keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=T,keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=F,keySize=4096,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{keySize=1024,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{keySize=384,keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{rating=A+,keySize=384,keyAlg=EC}</t>
+  </si>
+  <si>
+    <t>{rating=T,keySize=1024,keyAlg=RSA}</t>
+  </si>
+  <si>
+    <t>{rating=F,keySize=1024,keyAlg=RSA}</t>
   </si>
 </sst>
 </file>
@@ -904,6 +904,7569 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Keys</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Size 2048 Distributions in Percentage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$3,FrequentItemsets_keySizeAndAlgo!$B$8,FrequentItemsets_keySizeAndAlgo!$B$14,FrequentItemsets_keySizeAndAlgo!$B$16,FrequentItemsets_keySizeAndAlgo!$B$20,FrequentItemsets_keySizeAndAlgo!$B$25,FrequentItemsets_keySizeAndAlgo!$B$28,FrequentItemsets_keySizeAndAlgo!$B$33)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A+,keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=A-,keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=F,keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=C,keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,keySize=2048}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$3,FrequentItemsets_keySizeAndAlgo!$C$8,FrequentItemsets_keySizeAndAlgo!$C$14,FrequentItemsets_keySizeAndAlgo!$C$16,FrequentItemsets_keySizeAndAlgo!$C$20,FrequentItemsets_keySizeAndAlgo!$C$25,FrequentItemsets_keySizeAndAlgo!$C$28,FrequentItemsets_keySizeAndAlgo!$C$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.85699181261183099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32950170796508199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12251260640893601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.110150192484954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1227023803068893E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2904082849861699E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6885539228975799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.38106598709537E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1576214720"/>
+        <c:axId val="1766688912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1576214720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766688912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766688912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576214720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Key Size Distibutions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$3,FrequentItemsets_keySizeAndAlgo!$B$30,FrequentItemsets_keySizeAndAlgo!$B$37,FrequentItemsets_keySizeAndAlgo!$B$47,FrequentItemsets_keySizeAndAlgo!$B$67,FrequentItemsets_keySizeAndAlgo!$B$70)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>{keySize=2048}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{keySize=256}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{keySize=1024}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{keySize=384}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$3,FrequentItemsets_keySizeAndAlgo!$C$30,FrequentItemsets_keySizeAndAlgo!$C$37,FrequentItemsets_keySizeAndAlgo!$C$47,FrequentItemsets_keySizeAndAlgo!$C$67,FrequentItemsets_keySizeAndAlgo!$C$70)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.85699181261183099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6817762836848699E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7412568454155998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.14580057474381E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.98216125359215E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9008295830396402E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1766691632"/>
+        <c:axId val="1766688368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1766691632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766688368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766688368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766691632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Key</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Encryption Algorithms' Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$2,FrequentItemsets_keySizeAndAlgo!$B$35,FrequentItemsets_keySizeAndAlgo!$B$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>{keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{keyAlg=EC}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{keyAlg=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$2,FrequentItemsets_keySizeAndAlgo!$C$35,FrequentItemsets_keySizeAndAlgo!$C$46)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.938120153987963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0394729707748198E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14580057474381E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1766692720"/>
+        <c:axId val="1766693808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1766692720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766693808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766693808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766692720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Key</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Size 4096 Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$30,FrequentItemsets_keySizeAndAlgo!$B$42,FrequentItemsets_keySizeAndAlgo!$B$44,FrequentItemsets_keySizeAndAlgo!$B$49,FrequentItemsets_keySizeAndAlgo!$B$57,FrequentItemsets_keySizeAndAlgo!$B$62,FrequentItemsets_keySizeAndAlgo!$B$64,FrequentItemsets_keySizeAndAlgo!$B$66)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=B,keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=A-,keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=C,keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=T,keySize=4096}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=F,keySize=4096}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$30,FrequentItemsets_keySizeAndAlgo!$C$42,FrequentItemsets_keySizeAndAlgo!$C$44,FrequentItemsets_keySizeAndAlgo!$C$49,FrequentItemsets_keySizeAndAlgo!$C$57,FrequentItemsets_keySizeAndAlgo!$C$62,FrequentItemsets_keySizeAndAlgo!$C$64,FrequentItemsets_keySizeAndAlgo!$C$66)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.6817762836848699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8832077210865899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2284877731388601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7160440275443306E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0967846879574896E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7172368920457598E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6463698964376702E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5243723906088998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1766696528"/>
+        <c:axId val="1766684016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1766696528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766684016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766684016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0000000000000016E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766696528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Key Size 256 Ratings Distribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Percentages</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$37,FrequentItemsets_keySizeAndAlgo!$B$40,FrequentItemsets_keySizeAndAlgo!$B$55)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>{keySize=256}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,keySize=256}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,keySize=256}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$37,FrequentItemsets_keySizeAndAlgo!$C$40,FrequentItemsets_keySizeAndAlgo!$C$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7412568454155998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1041587594209202E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7474380523776002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1766694896"/>
+        <c:axId val="1766684560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1766694896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766684560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766684560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766694896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Key Encryption</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Algorithm EC Ratings Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$35,FrequentItemsets_keySizeAndAlgo!$B$38,FrequentItemsets_keySizeAndAlgo!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>{keyAlg=EC}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,keyAlg=EC}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,keyAlg=EC}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$35,FrequentItemsets_keySizeAndAlgo!$C$38,FrequentItemsets_keySizeAndAlgo!$C$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0394729707748198E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1760017350756398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9027273220191908E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1766695984"/>
+        <c:axId val="1766687280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1766695984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766687280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766687280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766695984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Key Size Null</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$47,FrequentItemsets_keySizeAndAlgo!$B$52,FrequentItemsets_keySizeAndAlgo!$B$59,FrequentItemsets_keySizeAndAlgo!$B$72,FrequentItemsets_keySizeAndAlgo!$B$75,FrequentItemsets_keySizeAndAlgo!$B$80,FrequentItemsets_keySizeAndAlgo!$B$83,FrequentItemsets_keySizeAndAlgo!$B$88)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A+,keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=F,keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=C,keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=A-,keySize=null}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,keySize=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$47,FrequentItemsets_keySizeAndAlgo!$C$52,FrequentItemsets_keySizeAndAlgo!$C$59,FrequentItemsets_keySizeAndAlgo!$C$72,FrequentItemsets_keySizeAndAlgo!$C$75,FrequentItemsets_keySizeAndAlgo!$C$80,FrequentItemsets_keySizeAndAlgo!$C$83,FrequentItemsets_keySizeAndAlgo!$C$88)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.14580057474381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0863200130130699E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8799002331507899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68394512823293E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.53483706555333E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0061812069619902E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.77574147372987E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.49108062679607E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1766697072"/>
+        <c:axId val="1766682928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1766697072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766682928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766682928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766697072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Key Algorithm RSA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Ratings Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$B$2,FrequentItemsets_keySizeAndAlgo!$B$6,FrequentItemsets_keySizeAndAlgo!$B$11,FrequentItemsets_keySizeAndAlgo!$B$12,FrequentItemsets_keySizeAndAlgo!$B$18,FrequentItemsets_keySizeAndAlgo!$B$22,FrequentItemsets_keySizeAndAlgo!$B$26,FrequentItemsets_keySizeAndAlgo!$B$32)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=B,keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=A-,keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=F,keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=C,keyAlg=RSA}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,keyAlg=RSA}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_keySizeAndAlgo!$C$2,FrequentItemsets_keySizeAndAlgo!$C$6,FrequentItemsets_keySizeAndAlgo!$C$11,FrequentItemsets_keySizeAndAlgo!$C$12,FrequentItemsets_keySizeAndAlgo!$C$18,FrequentItemsets_keySizeAndAlgo!$C$22,FrequentItemsets_keySizeAndAlgo!$C$26,FrequentItemsets_keySizeAndAlgo!$C$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.938120153987963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35876755408556099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13267906522799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.131459090169712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6418695440004296E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8000867537819202E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1656997234723194E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9137884292143399E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1785513216"/>
+        <c:axId val="1785508864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1785513216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1785508864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1785508864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1785513216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281853</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586653</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109104</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283276</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>569026</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>240445</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526195</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>51859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214930</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500680</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206117</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>491867</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28204</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188455</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>3957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474205</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>131184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218566</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>100291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>513748</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>37018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189506</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>196617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501279</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>112083</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1169,13 +8732,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1195,7 +8758,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>0.938120153987963</v>
@@ -1209,7 +8772,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
         <v>0.85699181261183099</v>
@@ -1223,7 +8786,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>0.85697825733340605</v>
@@ -1237,7 +8800,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0.39661389144933001</v>
@@ -1251,7 +8814,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <v>0.35876755408556099</v>
@@ -1265,7 +8828,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>0.32950170796508199</v>
@@ -1279,7 +8842,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>0.32950170796508199</v>
@@ -1293,7 +8856,7 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0.14326573767825199</v>
@@ -1307,7 +8870,7 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0.13658298541451999</v>
@@ -1321,7 +8884,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>0.13267906522799999</v>
@@ -1335,7 +8898,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1">
         <v>0.131459090169712</v>
@@ -1349,7 +8912,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>0.12251260640893601</v>
@@ -1363,7 +8926,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C14" s="6">
         <v>0.12251260640893601</v>
@@ -1377,7 +8940,7 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>0.110150192484954</v>
@@ -1391,7 +8954,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6">
         <v>0.110150192484954</v>
@@ -1405,7 +8968,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>9.8235102749010497E-2</v>
@@ -1419,7 +8982,7 @@
         <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1">
         <v>9.6418695440004296E-2</v>
@@ -1433,7 +8996,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>9.1227023803068893E-2</v>
@@ -1447,7 +9010,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6">
         <v>9.1227023803068893E-2</v>
@@ -1461,7 +9024,7 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>9.0657702109201294E-2</v>
@@ -1475,7 +9038,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1">
         <v>8.8000867537819202E-2</v>
@@ -1489,7 +9052,7 @@
         <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>8.3703844276961495E-2</v>
@@ -1503,7 +9066,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>8.2904082849861699E-2</v>
@@ -1517,7 +9080,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C25" s="6">
         <v>8.2904082849861699E-2</v>
@@ -1531,7 +9094,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1">
         <v>8.1656997234723194E-2</v>
@@ -1545,7 +9108,7 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>7.6885539228975799E-2</v>
@@ -1559,7 +9122,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6">
         <v>7.6885539228975799E-2</v>
@@ -1573,7 +9136,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>7.6817762836848699E-2</v>
@@ -1587,7 +9150,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3">
         <v>7.6817762836848699E-2</v>
@@ -1601,7 +9164,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>5.0940736322724098E-2</v>
@@ -1615,7 +9178,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>4.9137884292143399E-2</v>
@@ -1629,7 +9192,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6">
         <v>4.38106598709537E-2</v>
@@ -1643,7 +9206,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>4.3797104592528301E-2</v>
@@ -1657,7 +9220,7 @@
         <v>85</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C35" s="9">
         <v>4.0394729707748198E-2</v>
@@ -1671,7 +9234,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>3.7412568454155998E-2</v>
@@ -1685,7 +9248,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7">
         <v>3.7412568454155998E-2</v>
@@ -1699,7 +9262,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C38" s="9">
         <v>3.1760017350756398E-2</v>
@@ -1713,7 +9276,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>3.1041587594209202E-2</v>
@@ -1727,7 +9290,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C40" s="7">
         <v>3.1041587594209202E-2</v>
@@ -1741,7 +9304,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>2.8832077210865899E-2</v>
@@ -1755,7 +9318,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C42" s="3">
         <v>2.8832077210865899E-2</v>
@@ -1769,7 +9332,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>2.2284877731388601E-2</v>
@@ -1783,7 +9346,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3">
         <v>2.2284877731388601E-2</v>
@@ -1797,7 +9360,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C45">
         <v>2.14580057474381E-2</v>
@@ -1811,7 +9374,7 @@
         <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2">
         <v>2.14580057474381E-2</v>
@@ -1825,7 +9388,7 @@
         <v>88</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C47" s="8">
         <v>2.14580057474381E-2</v>
@@ -1839,7 +9402,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>8.7160440275443306E-3</v>
@@ -1853,7 +9416,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C49" s="3">
         <v>8.7160440275443306E-3</v>
@@ -1867,7 +9430,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C50" s="9">
         <v>7.9027273220191908E-3</v>
@@ -1881,7 +9444,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>6.0863200130130699E-3</v>
@@ -1895,7 +9458,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C52" s="8">
         <v>6.0863200130130699E-3</v>
@@ -1909,7 +9472,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2">
         <v>6.0863200130130699E-3</v>
@@ -1923,7 +9486,7 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C54">
         <v>5.7474380523776002E-3</v>
@@ -1937,7 +9500,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7">
         <v>5.7474380523776002E-3</v>
@@ -1951,7 +9514,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C56">
         <v>5.0967846879574896E-3</v>
@@ -1965,7 +9528,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C57" s="3">
         <v>5.0967846879574896E-3</v>
@@ -1979,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>4.8799002331507899E-3</v>
@@ -1993,7 +9556,7 @@
         <v>18</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C59" s="8">
         <v>4.8799002331507899E-3</v>
@@ -2007,7 +9570,7 @@
         <v>26</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C60" s="2">
         <v>4.8799002331507899E-3</v>
@@ -2021,7 +9584,7 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <v>4.7172368920457598E-3</v>
@@ -2035,7 +9598,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C62" s="3">
         <v>4.7172368920457598E-3</v>
@@ -2049,7 +9612,7 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C63">
         <v>3.6463698964376702E-3</v>
@@ -2063,7 +9626,7 @@
         <v>42</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C64" s="3">
         <v>3.6463698964376702E-3</v>
@@ -2077,7 +9640,7 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <v>3.5243723906088998E-3</v>
@@ -2091,7 +9654,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C66" s="3">
         <v>3.5243723906088998E-3</v>
@@ -2105,7 +9668,7 @@
         <v>89</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C67" s="4">
         <v>2.98216125359215E-3</v>
@@ -2119,7 +9682,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C68">
         <v>2.9686059751667299E-3</v>
@@ -2133,7 +9696,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C69">
         <v>2.9008295830396402E-3</v>
@@ -2147,7 +9710,7 @@
         <v>90</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C70" s="5">
         <v>2.9008295830396402E-3</v>
@@ -2161,7 +9724,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C71">
         <v>2.68394512823293E-3</v>
@@ -2175,7 +9738,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C72" s="8">
         <v>2.68394512823293E-3</v>
@@ -2189,7 +9752,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2">
         <v>2.68394512823293E-3</v>
@@ -2203,7 +9766,7 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>2.53483706555333E-3</v>
@@ -2217,7 +9780,7 @@
         <v>20</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C75" s="8">
         <v>2.53483706555333E-3</v>
@@ -2231,7 +9794,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2">
         <v>2.53483706555333E-3</v>
@@ -2245,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C77">
         <v>2.0875128775145E-3</v>
@@ -2259,7 +9822,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C78" s="5">
         <v>2.0875128775145E-3</v>
@@ -2273,7 +9836,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C79">
         <v>2.0061812069619902E-3</v>
@@ -2287,7 +9850,7 @@
         <v>21</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C80" s="8">
         <v>2.0061812069619902E-3</v>
@@ -2301,7 +9864,7 @@
         <v>29</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2">
         <v>2.0061812069619902E-3</v>
@@ -2315,7 +9878,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C82">
         <v>1.77574147372987E-3</v>
@@ -2329,7 +9892,7 @@
         <v>19</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C83" s="8">
         <v>1.77574147372987E-3</v>
@@ -2343,7 +9906,7 @@
         <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2">
         <v>1.77574147372987E-3</v>
@@ -2357,7 +9920,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C85" s="4">
         <v>1.57241229734859E-3</v>
@@ -2371,7 +9934,7 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>1.55885701892317E-3</v>
@@ -2385,7 +9948,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C87">
         <v>1.49108062679607E-3</v>
@@ -2399,7 +9962,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C88" s="8">
         <v>1.49108062679607E-3</v>
@@ -2413,7 +9976,7 @@
         <v>30</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2">
         <v>1.49108062679607E-3</v>
@@ -2427,7 +9990,7 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>1.40974895624356E-3</v>
@@ -2441,7 +10004,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C91" s="4">
         <v>1.40974895624356E-3</v>
@@ -2452,5 +10015,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/FrequentItemsets_keySizeAndAlgo20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_keySizeAndAlgo20022018.xlsx
@@ -943,7 +943,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Size 2048 Distributions in Percentage</a:t>
+              <a:t> Size 2048 Ratings Distribution</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1134,11 +1134,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1576214720"/>
-        <c:axId val="1766688912"/>
+        <c:axId val="-1559107584"/>
+        <c:axId val="-1559111392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1576214720"/>
+        <c:axId val="-1559107584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766688912"/>
+        <c:crossAx val="-1559111392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1189,7 +1189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766688912"/>
+        <c:axId val="-1559111392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576214720"/>
+        <c:crossAx val="-1559107584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1284,7 +1284,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1324,7 +1324,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Key Size Distibutions</a:t>
+              <a:t>Key Size Distibution</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1502,11 +1502,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1766691632"/>
-        <c:axId val="1766688368"/>
+        <c:axId val="-1483741344"/>
+        <c:axId val="-1483742976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1766691632"/>
+        <c:axId val="-1483741344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766688368"/>
+        <c:crossAx val="-1483742976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1557,7 +1557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766688368"/>
+        <c:axId val="-1483742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766691632"/>
+        <c:crossAx val="-1483741344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1652,7 +1652,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1696,7 +1696,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Encryption Algorithms' Distributions</a:t>
+              <a:t> Encryption Algorithms Distribution</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1857,11 +1857,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1766692720"/>
-        <c:axId val="1766693808"/>
+        <c:axId val="-1483736992"/>
+        <c:axId val="-1483746240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1766692720"/>
+        <c:axId val="-1483736992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,7 +1904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766693808"/>
+        <c:crossAx val="-1483746240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1912,7 +1912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766693808"/>
+        <c:axId val="-1483746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +1963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766692720"/>
+        <c:crossAx val="-1483736992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,7 +2007,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2051,7 +2051,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Size 4096 Ratings Distributions</a:t>
+              <a:t> Size 4096 Ratings Distribution</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2242,11 +2242,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1766696528"/>
-        <c:axId val="1766684016"/>
+        <c:axId val="-1483736448"/>
+        <c:axId val="-1483735904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1766696528"/>
+        <c:axId val="-1483736448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766684016"/>
+        <c:crossAx val="-1483735904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2297,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766684016"/>
+        <c:axId val="-1483735904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0000000000000016E-2"/>
@@ -2349,7 +2349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766696528"/>
+        <c:crossAx val="-1483736448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2393,7 +2393,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2435,11 +2435,6 @@
               <a:rPr lang="en-GB"/>
               <a:t>Key Size 256 Ratings Distribution</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Percentages</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2598,11 +2593,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1766694896"/>
-        <c:axId val="1766684560"/>
+        <c:axId val="-1483734816"/>
+        <c:axId val="-1483744608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1766694896"/>
+        <c:axId val="-1483734816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766684560"/>
+        <c:crossAx val="-1483744608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2653,7 +2648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766684560"/>
+        <c:axId val="-1483744608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766694896"/>
+        <c:crossAx val="-1483734816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2748,7 +2743,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2953,11 +2948,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1766695984"/>
-        <c:axId val="1766687280"/>
+        <c:axId val="-1483026160"/>
+        <c:axId val="-1483025616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1766695984"/>
+        <c:axId val="-1483026160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +2995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766687280"/>
+        <c:crossAx val="-1483025616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3008,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766687280"/>
+        <c:axId val="-1483025616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766695984"/>
+        <c:crossAx val="-1483026160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3103,7 +3098,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3147,7 +3142,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Ratings Distributions</a:t>
+              <a:t> Ratings Distribution</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3338,11 +3333,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1766697072"/>
-        <c:axId val="1766682928"/>
+        <c:axId val="-1483023984"/>
+        <c:axId val="-1483035952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1766697072"/>
+        <c:axId val="-1483023984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766682928"/>
+        <c:crossAx val="-1483035952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3393,7 +3388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766682928"/>
+        <c:axId val="-1483035952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766697072"/>
+        <c:crossAx val="-1483023984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3488,7 +3483,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3723,11 +3718,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1785513216"/>
-        <c:axId val="1785508864"/>
+        <c:axId val="-1714585456"/>
+        <c:axId val="-1381975024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1785513216"/>
+        <c:axId val="-1714585456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785508864"/>
+        <c:crossAx val="-1381975024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3778,7 +3773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1785508864"/>
+        <c:axId val="-1381975024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3829,7 +3824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785513216"/>
+        <c:crossAx val="-1714585456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3873,7 +3868,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -8732,7 +8727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C103" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
